--- a/biology/Zoologie/Heteronotia/Heteronotia.xlsx
+++ b/biology/Zoologie/Heteronotia/Heteronotia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heteronotia est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heteronotia est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cinq espèces de ce genre sont endémiques d'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cinq espèces de ce genre sont endémiques d'Australie.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos nocturnes et arboricoles, ils apprécient les climats plutôt secs.
-Le mode de reproduction est la parthénogenèse, les femelles se reproduisent sans fécondation [2].
+Le mode de reproduction est la parthénogenèse, les femelles se reproduisent sans fécondation .
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 décembre 2015)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 décembre 2015) :
 Heteronotia atra Pepper, Doughty, Fujita, Moritz &amp; Keogh, 2013
 Heteronotia binoei (Gray, 1845)
 Heteronotia fasciolata Pepper, Doughty, Fujita, Moritz &amp; Keogh, 2013
@@ -609,7 +627,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteronotia est un nom de remplacement pour Heteronota Gray, 1845 préoccupé par Heteronota Germar, 1835.
 </t>
@@ -640,7 +660,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Wermuth, 1965 : Liste der rezenten Amphibien und Reptilien, Gekkonidae, Pygopodidae, Xantusiidae. Das Tierreich, vol. 80, p. 1-246.
 Gray, 1845 : Catalogue of the specimens of lizards in the collection of the British Museum, p. 1-289 (texte intégral).</t>
